--- a/public/documents/investor-complaints-data.xlsx
+++ b/public/documents/investor-complaints-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Compliance\Investor Charter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69ADF37C-72E6-440A-86CA-63CB96E615F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BF898B-5678-4BFF-996C-C456B55A645D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Depositories" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="36">
   <si>
     <t>Monthly Complaint Data</t>
   </si>
@@ -182,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -364,20 +364,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,9 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -817,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J322"/>
+  <dimension ref="B1:J350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="E324" sqref="E324"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47" defaultRowHeight="15"/>
@@ -7021,536 +7009,620 @@
       </c>
     </row>
     <row r="262" spans="2:9">
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-    </row>
-    <row r="263" spans="2:9">
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-    </row>
-    <row r="264" spans="2:9" ht="18.75" thickBot="1">
-      <c r="B264" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31"/>
-      <c r="E264" s="31"/>
-      <c r="F264" s="31"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-    </row>
-    <row r="265" spans="2:9" ht="38.25">
-      <c r="B265" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C265" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D265" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
+      <c r="B262" s="22">
+        <v>45839</v>
+      </c>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="21"/>
+    </row>
+    <row r="263" spans="2:9" ht="26.25">
+      <c r="B263" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>0</v>
+      </c>
+      <c r="G263" s="3">
+        <v>0</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0</v>
+      </c>
+      <c r="I263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
+      <c r="B264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" s="3">
+        <v>0</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0</v>
+      </c>
+      <c r="G264" s="3">
+        <v>0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0</v>
+      </c>
+      <c r="I264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9">
+      <c r="B265" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>0</v>
+      </c>
+      <c r="G265" s="3">
+        <v>0</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0</v>
+      </c>
+      <c r="I265" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="2:9">
-      <c r="B266" s="25">
-        <v>44531</v>
+      <c r="B266" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C266" s="3">
-        <f>+C9</f>
         <v>0</v>
       </c>
       <c r="D266" s="3">
-        <f>+D9</f>
         <v>0</v>
       </c>
       <c r="E266" s="3">
-        <f>+F9</f>
-        <v>0</v>
-      </c>
-      <c r="F266" s="5">
-        <f>+F5</f>
-        <v>0</v>
-      </c>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-    </row>
-    <row r="267" spans="2:9">
-      <c r="B267" s="25">
-        <v>44562</v>
-      </c>
-      <c r="C267" s="3">
-        <v>0</v>
-      </c>
-      <c r="D267" s="3">
-        <v>0</v>
-      </c>
-      <c r="E267" s="3">
-        <v>0</v>
-      </c>
-      <c r="F267" s="5">
-        <v>0</v>
-      </c>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G266" s="3">
+        <v>0</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0</v>
+      </c>
+      <c r="I266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B267" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="7">
+        <v>0</v>
+      </c>
+      <c r="D267" s="7">
+        <v>0</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0</v>
+      </c>
+      <c r="F267" s="7">
+        <v>0</v>
+      </c>
+      <c r="G267" s="7">
+        <v>0</v>
+      </c>
+      <c r="H267" s="7">
+        <v>0</v>
+      </c>
+      <c r="I267" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="2:9">
-      <c r="B268" s="25">
-        <v>44593</v>
-      </c>
-      <c r="C268" s="24">
-        <v>0</v>
-      </c>
-      <c r="D268" s="24">
-        <v>0</v>
-      </c>
-      <c r="E268" s="24">
-        <v>0</v>
-      </c>
-      <c r="F268" s="26">
-        <v>0</v>
-      </c>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-    </row>
-    <row r="269" spans="2:9">
-      <c r="B269" s="25">
-        <v>44621</v>
-      </c>
-      <c r="C269" s="24">
-        <v>0</v>
-      </c>
-      <c r="D269" s="24">
-        <v>0</v>
-      </c>
-      <c r="E269" s="24">
-        <v>0</v>
-      </c>
-      <c r="F269" s="26">
-        <v>0</v>
-      </c>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
+      <c r="B268" s="22">
+        <v>45870</v>
+      </c>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="21"/>
+    </row>
+    <row r="269" spans="2:9" ht="26.25">
+      <c r="B269" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" s="3">
+        <v>0</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>0</v>
+      </c>
+      <c r="G269" s="3">
+        <v>0</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0</v>
+      </c>
+      <c r="I269" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="2:9">
-      <c r="B270" s="25">
-        <v>44652</v>
-      </c>
-      <c r="C270" s="24">
-        <v>0</v>
-      </c>
-      <c r="D270" s="24">
-        <v>0</v>
-      </c>
-      <c r="E270" s="24">
-        <v>0</v>
-      </c>
-      <c r="F270" s="26">
-        <v>0</v>
-      </c>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
+      <c r="B270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" s="3">
+        <v>0</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0</v>
+      </c>
+      <c r="G270" s="3">
+        <v>0</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I270" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="2:9">
-      <c r="B271" s="25">
-        <v>44682</v>
-      </c>
-      <c r="C271" s="24">
-        <v>0</v>
-      </c>
-      <c r="D271" s="24">
-        <v>0</v>
-      </c>
-      <c r="E271" s="24">
-        <v>0</v>
-      </c>
-      <c r="F271" s="26">
-        <v>0</v>
-      </c>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
+      <c r="B271" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C271" s="3">
+        <v>0</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0</v>
+      </c>
+      <c r="E271" s="3">
+        <v>0</v>
+      </c>
+      <c r="F271" s="3">
+        <v>0</v>
+      </c>
+      <c r="G271" s="3">
+        <v>0</v>
+      </c>
+      <c r="H271" s="3">
+        <v>0</v>
+      </c>
+      <c r="I271" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="2:9">
-      <c r="B272" s="25">
-        <v>44713</v>
-      </c>
-      <c r="C272" s="24">
-        <v>0</v>
-      </c>
-      <c r="D272" s="24">
-        <v>0</v>
-      </c>
-      <c r="E272" s="24">
-        <v>0</v>
-      </c>
-      <c r="F272" s="26">
-        <v>0</v>
-      </c>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-    </row>
-    <row r="273" spans="2:9">
-      <c r="B273" s="25">
-        <v>44743</v>
-      </c>
-      <c r="C273" s="24">
-        <v>0</v>
-      </c>
-      <c r="D273" s="24">
-        <v>0</v>
-      </c>
-      <c r="E273" s="24">
-        <v>0</v>
-      </c>
-      <c r="F273" s="26">
-        <v>0</v>
-      </c>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
+      <c r="B272" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" s="3">
+        <v>0</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0</v>
+      </c>
+      <c r="E272" s="3">
+        <v>0</v>
+      </c>
+      <c r="F272" s="3">
+        <v>0</v>
+      </c>
+      <c r="G272" s="3">
+        <v>0</v>
+      </c>
+      <c r="H272" s="3">
+        <v>0</v>
+      </c>
+      <c r="I272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B273" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" s="7">
+        <v>0</v>
+      </c>
+      <c r="D273" s="7">
+        <v>0</v>
+      </c>
+      <c r="E273" s="7">
+        <v>0</v>
+      </c>
+      <c r="F273" s="7">
+        <v>0</v>
+      </c>
+      <c r="G273" s="7">
+        <v>0</v>
+      </c>
+      <c r="H273" s="7">
+        <v>0</v>
+      </c>
+      <c r="I273" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="2:9">
-      <c r="B274" s="25">
-        <v>44774</v>
-      </c>
-      <c r="C274" s="24">
-        <v>0</v>
-      </c>
-      <c r="D274" s="24">
-        <v>0</v>
-      </c>
-      <c r="E274" s="24">
-        <v>0</v>
-      </c>
-      <c r="F274" s="26">
-        <v>0</v>
-      </c>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-    </row>
-    <row r="275" spans="2:9">
-      <c r="B275" s="25">
-        <v>44805</v>
-      </c>
-      <c r="C275" s="24">
-        <v>0</v>
-      </c>
-      <c r="D275" s="24">
-        <v>0</v>
-      </c>
-      <c r="E275" s="24">
-        <v>0</v>
-      </c>
-      <c r="F275" s="26">
-        <v>0</v>
-      </c>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
+      <c r="B274" s="22">
+        <v>45901</v>
+      </c>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="21"/>
+    </row>
+    <row r="275" spans="2:9" ht="26.25">
+      <c r="B275" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" s="3">
+        <v>0</v>
+      </c>
+      <c r="D275" s="3">
+        <v>0</v>
+      </c>
+      <c r="E275" s="3">
+        <v>0</v>
+      </c>
+      <c r="F275" s="3">
+        <v>0</v>
+      </c>
+      <c r="G275" s="3">
+        <v>0</v>
+      </c>
+      <c r="H275" s="3">
+        <v>0</v>
+      </c>
+      <c r="I275" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="2:9">
-      <c r="B276" s="25">
-        <v>44835</v>
-      </c>
-      <c r="C276" s="24">
-        <v>0</v>
-      </c>
-      <c r="D276" s="24">
-        <v>0</v>
-      </c>
-      <c r="E276" s="24">
-        <v>0</v>
-      </c>
-      <c r="F276" s="26">
-        <v>0</v>
-      </c>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
+      <c r="B276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" s="3">
+        <v>0</v>
+      </c>
+      <c r="D276" s="3">
+        <v>0</v>
+      </c>
+      <c r="E276" s="3">
+        <v>0</v>
+      </c>
+      <c r="F276" s="3">
+        <v>0</v>
+      </c>
+      <c r="G276" s="3">
+        <v>0</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0</v>
+      </c>
+      <c r="I276" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="2:9">
-      <c r="B277" s="25">
-        <v>44866</v>
-      </c>
-      <c r="C277" s="24">
-        <v>0</v>
-      </c>
-      <c r="D277" s="24">
-        <v>0</v>
-      </c>
-      <c r="E277" s="24">
-        <v>0</v>
-      </c>
-      <c r="F277" s="26">
-        <v>0</v>
-      </c>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
+      <c r="B277" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C277" s="3">
+        <v>0</v>
+      </c>
+      <c r="D277" s="3">
+        <v>0</v>
+      </c>
+      <c r="E277" s="3">
+        <v>0</v>
+      </c>
+      <c r="F277" s="3">
+        <v>0</v>
+      </c>
+      <c r="G277" s="3">
+        <v>0</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0</v>
+      </c>
+      <c r="I277" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="2:9">
-      <c r="B278" s="25">
-        <v>44896</v>
-      </c>
-      <c r="C278" s="24">
-        <v>0</v>
-      </c>
-      <c r="D278" s="24">
-        <v>0</v>
-      </c>
-      <c r="E278" s="24">
-        <v>0</v>
-      </c>
-      <c r="F278" s="26">
-        <v>0</v>
-      </c>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-    </row>
-    <row r="279" spans="2:9">
-      <c r="B279" s="25">
-        <v>44927</v>
-      </c>
-      <c r="C279" s="24">
-        <v>0</v>
-      </c>
-      <c r="D279" s="24">
-        <v>0</v>
-      </c>
-      <c r="E279" s="24">
-        <v>0</v>
-      </c>
-      <c r="F279" s="26">
-        <v>0</v>
-      </c>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
+      <c r="B278" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0</v>
+      </c>
+      <c r="D278" s="3">
+        <v>0</v>
+      </c>
+      <c r="E278" s="3">
+        <v>0</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0</v>
+      </c>
+      <c r="G278" s="3">
+        <v>0</v>
+      </c>
+      <c r="H278" s="3">
+        <v>0</v>
+      </c>
+      <c r="I278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B279" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279" s="7">
+        <v>0</v>
+      </c>
+      <c r="D279" s="7">
+        <v>0</v>
+      </c>
+      <c r="E279" s="7">
+        <v>0</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0</v>
+      </c>
+      <c r="G279" s="7">
+        <v>0</v>
+      </c>
+      <c r="H279" s="7">
+        <v>0</v>
+      </c>
+      <c r="I279" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="2:9">
-      <c r="B280" s="25">
-        <v>44958</v>
-      </c>
-      <c r="C280" s="24">
-        <v>0</v>
-      </c>
-      <c r="D280" s="24">
-        <v>0</v>
-      </c>
-      <c r="E280" s="24">
-        <v>0</v>
-      </c>
-      <c r="F280" s="26">
-        <v>0</v>
-      </c>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-    </row>
-    <row r="281" spans="2:9">
-      <c r="B281" s="25">
-        <v>44986</v>
-      </c>
-      <c r="C281" s="24">
-        <v>0</v>
-      </c>
-      <c r="D281" s="24">
-        <v>0</v>
-      </c>
-      <c r="E281" s="24">
-        <v>0</v>
-      </c>
-      <c r="F281" s="26">
-        <v>0</v>
-      </c>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
+      <c r="B280" s="22">
+        <v>45931</v>
+      </c>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="20"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="21"/>
+    </row>
+    <row r="281" spans="2:9" ht="26.25">
+      <c r="B281" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="3">
+        <v>0</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0</v>
+      </c>
+      <c r="E281" s="3">
+        <v>0</v>
+      </c>
+      <c r="F281" s="3">
+        <v>0</v>
+      </c>
+      <c r="G281" s="3">
+        <v>0</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0</v>
+      </c>
+      <c r="I281" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="2:9">
-      <c r="B282" s="25">
-        <v>45017</v>
-      </c>
-      <c r="C282" s="24">
-        <v>0</v>
-      </c>
-      <c r="D282" s="24">
-        <v>0</v>
-      </c>
-      <c r="E282" s="24">
-        <v>0</v>
-      </c>
-      <c r="F282" s="26">
-        <v>0</v>
-      </c>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
+      <c r="B282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="3">
+        <v>0</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>0</v>
+      </c>
+      <c r="F282" s="3">
+        <v>0</v>
+      </c>
+      <c r="G282" s="3">
+        <v>0</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0</v>
+      </c>
+      <c r="I282" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="2:9">
-      <c r="B283" s="25">
-        <v>45047</v>
-      </c>
-      <c r="C283" s="24">
-        <v>0</v>
-      </c>
-      <c r="D283" s="24">
-        <v>0</v>
-      </c>
-      <c r="E283" s="24">
-        <v>0</v>
-      </c>
-      <c r="F283" s="26">
-        <v>0</v>
-      </c>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
+      <c r="B283" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C283" s="3">
+        <v>0</v>
+      </c>
+      <c r="D283" s="3">
+        <v>0</v>
+      </c>
+      <c r="E283" s="3">
+        <v>0</v>
+      </c>
+      <c r="F283" s="3">
+        <v>0</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <v>0</v>
+      </c>
+      <c r="I283" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="2:9">
-      <c r="B284" s="25">
-        <v>45078</v>
-      </c>
-      <c r="C284" s="24">
-        <v>0</v>
-      </c>
-      <c r="D284" s="24">
-        <v>0</v>
-      </c>
-      <c r="E284" s="24">
-        <v>0</v>
-      </c>
-      <c r="F284" s="26">
-        <v>0</v>
-      </c>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-    </row>
-    <row r="285" spans="2:9">
-      <c r="B285" s="25">
-        <v>45108</v>
-      </c>
-      <c r="C285" s="24">
-        <v>0</v>
-      </c>
-      <c r="D285" s="24">
-        <v>0</v>
-      </c>
-      <c r="E285" s="24">
-        <v>0</v>
-      </c>
-      <c r="F285" s="26">
-        <v>0</v>
-      </c>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
+      <c r="B284" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="3">
+        <v>0</v>
+      </c>
+      <c r="D284" s="3">
+        <v>0</v>
+      </c>
+      <c r="E284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0</v>
+      </c>
+      <c r="G284" s="3">
+        <v>0</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0</v>
+      </c>
+      <c r="I284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B285" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="7">
+        <v>0</v>
+      </c>
+      <c r="D285" s="7">
+        <v>0</v>
+      </c>
+      <c r="E285" s="7">
+        <v>0</v>
+      </c>
+      <c r="F285" s="7">
+        <v>0</v>
+      </c>
+      <c r="G285" s="7">
+        <v>0</v>
+      </c>
+      <c r="H285" s="7">
+        <v>0</v>
+      </c>
+      <c r="I285" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="2:9">
-      <c r="B286" s="25">
-        <v>45139</v>
-      </c>
-      <c r="C286" s="24">
-        <v>0</v>
-      </c>
-      <c r="D286" s="24">
-        <v>0</v>
-      </c>
-      <c r="E286" s="24">
-        <v>0</v>
-      </c>
-      <c r="F286" s="26">
-        <v>0</v>
-      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="25">
-        <v>45170</v>
-      </c>
-      <c r="C287" s="24">
-        <v>0</v>
-      </c>
-      <c r="D287" s="24">
-        <v>0</v>
-      </c>
-      <c r="E287" s="24">
-        <v>0</v>
-      </c>
-      <c r="F287" s="26">
-        <v>0</v>
-      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="2:9">
-      <c r="B288" s="25">
-        <v>45200</v>
-      </c>
-      <c r="C288" s="24">
-        <v>0</v>
-      </c>
-      <c r="D288" s="24">
-        <v>0</v>
-      </c>
-      <c r="E288" s="24">
-        <v>0</v>
-      </c>
-      <c r="F288" s="26">
-        <v>0</v>
-      </c>
+    <row r="288" spans="2:9" ht="18.75" thickBot="1">
+      <c r="B288" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" s="31"/>
+      <c r="D288" s="31"/>
+      <c r="E288" s="31"/>
+      <c r="F288" s="31"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
     </row>
-    <row r="289" spans="2:9">
-      <c r="B289" s="25">
-        <v>45231</v>
-      </c>
-      <c r="C289" s="24">
-        <v>0</v>
-      </c>
-      <c r="D289" s="24">
-        <v>0</v>
-      </c>
-      <c r="E289" s="24">
-        <v>0</v>
-      </c>
-      <c r="F289" s="26">
-        <v>0</v>
+    <row r="289" spans="2:9" ht="38.25">
+      <c r="B289" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
@@ -7558,18 +7630,22 @@
     </row>
     <row r="290" spans="2:9">
       <c r="B290" s="25">
-        <v>45261</v>
-      </c>
-      <c r="C290" s="24">
-        <v>0</v>
-      </c>
-      <c r="D290" s="24">
-        <v>0</v>
-      </c>
-      <c r="E290" s="24">
-        <v>0</v>
-      </c>
-      <c r="F290" s="26">
+        <v>44531</v>
+      </c>
+      <c r="C290" s="3">
+        <f>+C9</f>
+        <v>0</v>
+      </c>
+      <c r="D290" s="3">
+        <f>+D9</f>
+        <v>0</v>
+      </c>
+      <c r="E290" s="3">
+        <f>+F9</f>
+        <v>0</v>
+      </c>
+      <c r="F290" s="5">
+        <f>+F5</f>
         <v>0</v>
       </c>
       <c r="G290" s="2"/>
@@ -7578,18 +7654,18 @@
     </row>
     <row r="291" spans="2:9">
       <c r="B291" s="25">
-        <v>45292</v>
-      </c>
-      <c r="C291" s="24">
-        <v>0</v>
-      </c>
-      <c r="D291" s="24">
-        <v>0</v>
-      </c>
-      <c r="E291" s="24">
-        <v>0</v>
-      </c>
-      <c r="F291" s="26">
+        <v>44562</v>
+      </c>
+      <c r="C291" s="3">
+        <v>0</v>
+      </c>
+      <c r="D291" s="3">
+        <v>0</v>
+      </c>
+      <c r="E291" s="3">
+        <v>0</v>
+      </c>
+      <c r="F291" s="5">
         <v>0</v>
       </c>
       <c r="G291" s="2"/>
@@ -7598,7 +7674,7 @@
     </row>
     <row r="292" spans="2:9">
       <c r="B292" s="25">
-        <v>45323</v>
+        <v>44593</v>
       </c>
       <c r="C292" s="24">
         <v>0</v>
@@ -7618,7 +7694,7 @@
     </row>
     <row r="293" spans="2:9">
       <c r="B293" s="25">
-        <v>45352</v>
+        <v>44621</v>
       </c>
       <c r="C293" s="24">
         <v>0</v>
@@ -7638,7 +7714,7 @@
     </row>
     <row r="294" spans="2:9">
       <c r="B294" s="25">
-        <v>45383</v>
+        <v>44652</v>
       </c>
       <c r="C294" s="24">
         <v>0</v>
@@ -7658,7 +7734,7 @@
     </row>
     <row r="295" spans="2:9">
       <c r="B295" s="25">
-        <v>45413</v>
+        <v>44682</v>
       </c>
       <c r="C295" s="24">
         <v>0</v>
@@ -7678,7 +7754,7 @@
     </row>
     <row r="296" spans="2:9">
       <c r="B296" s="25">
-        <v>45444</v>
+        <v>44713</v>
       </c>
       <c r="C296" s="24">
         <v>0</v>
@@ -7698,7 +7774,7 @@
     </row>
     <row r="297" spans="2:9">
       <c r="B297" s="25">
-        <v>45474</v>
+        <v>44743</v>
       </c>
       <c r="C297" s="24">
         <v>0</v>
@@ -7718,7 +7794,7 @@
     </row>
     <row r="298" spans="2:9">
       <c r="B298" s="25">
-        <v>45505</v>
+        <v>44774</v>
       </c>
       <c r="C298" s="24">
         <v>0</v>
@@ -7738,7 +7814,7 @@
     </row>
     <row r="299" spans="2:9">
       <c r="B299" s="25">
-        <v>45536</v>
+        <v>44805</v>
       </c>
       <c r="C299" s="24">
         <v>0</v>
@@ -7758,7 +7834,7 @@
     </row>
     <row r="300" spans="2:9">
       <c r="B300" s="25">
-        <v>45566</v>
+        <v>44835</v>
       </c>
       <c r="C300" s="24">
         <v>0</v>
@@ -7778,7 +7854,7 @@
     </row>
     <row r="301" spans="2:9">
       <c r="B301" s="25">
-        <v>45597</v>
+        <v>44866</v>
       </c>
       <c r="C301" s="24">
         <v>0</v>
@@ -7798,7 +7874,7 @@
     </row>
     <row r="302" spans="2:9">
       <c r="B302" s="25">
-        <v>45627</v>
+        <v>44896</v>
       </c>
       <c r="C302" s="24">
         <v>0</v>
@@ -7818,7 +7894,7 @@
     </row>
     <row r="303" spans="2:9">
       <c r="B303" s="25">
-        <v>45658</v>
+        <v>44927</v>
       </c>
       <c r="C303" s="24">
         <v>0</v>
@@ -7838,7 +7914,7 @@
     </row>
     <row r="304" spans="2:9">
       <c r="B304" s="25">
-        <v>45689</v>
+        <v>44958</v>
       </c>
       <c r="C304" s="24">
         <v>0</v>
@@ -7858,7 +7934,7 @@
     </row>
     <row r="305" spans="2:9">
       <c r="B305" s="25">
-        <v>45717</v>
+        <v>44986</v>
       </c>
       <c r="C305" s="24">
         <v>0</v>
@@ -7878,7 +7954,7 @@
     </row>
     <row r="306" spans="2:9">
       <c r="B306" s="25">
-        <v>45748</v>
+        <v>45017</v>
       </c>
       <c r="C306" s="24">
         <v>0</v>
@@ -7898,7 +7974,7 @@
     </row>
     <row r="307" spans="2:9">
       <c r="B307" s="25">
-        <v>45778</v>
+        <v>45047</v>
       </c>
       <c r="C307" s="24">
         <v>0</v>
@@ -7916,20 +7992,20 @@
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B308" s="27">
-        <v>45809</v>
-      </c>
-      <c r="C308" s="28">
-        <v>0</v>
-      </c>
-      <c r="D308" s="28">
-        <v>0</v>
-      </c>
-      <c r="E308" s="28">
-        <v>0</v>
-      </c>
-      <c r="F308" s="29">
+    <row r="308" spans="2:9">
+      <c r="B308" s="25">
+        <v>45078</v>
+      </c>
+      <c r="C308" s="24">
+        <v>0</v>
+      </c>
+      <c r="D308" s="24">
+        <v>0</v>
+      </c>
+      <c r="E308" s="24">
+        <v>0</v>
+      </c>
+      <c r="F308" s="26">
         <v>0</v>
       </c>
       <c r="G308" s="2"/>
@@ -7937,81 +8013,119 @@
       <c r="I308" s="2"/>
     </row>
     <row r="309" spans="2:9">
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
+      <c r="B309" s="25">
+        <v>45108</v>
+      </c>
+      <c r="C309" s="24">
+        <v>0</v>
+      </c>
+      <c r="D309" s="24">
+        <v>0</v>
+      </c>
+      <c r="E309" s="24">
+        <v>0</v>
+      </c>
+      <c r="F309" s="26">
+        <v>0</v>
+      </c>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
     </row>
     <row r="310" spans="2:9">
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
+      <c r="B310" s="25">
+        <v>45139</v>
+      </c>
+      <c r="C310" s="24">
+        <v>0</v>
+      </c>
+      <c r="D310" s="24">
+        <v>0</v>
+      </c>
+      <c r="E310" s="24">
+        <v>0</v>
+      </c>
+      <c r="F310" s="26">
+        <v>0</v>
+      </c>
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
     </row>
     <row r="311" spans="2:9">
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
+      <c r="B311" s="25">
+        <v>45170</v>
+      </c>
+      <c r="C311" s="24">
+        <v>0</v>
+      </c>
+      <c r="D311" s="24">
+        <v>0</v>
+      </c>
+      <c r="E311" s="24">
+        <v>0</v>
+      </c>
+      <c r="F311" s="26">
+        <v>0</v>
+      </c>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
     </row>
-    <row r="312" spans="2:9" ht="18.75" thickBot="1">
-      <c r="B312" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C312" s="31"/>
-      <c r="D312" s="31"/>
-      <c r="E312" s="31"/>
-      <c r="F312" s="31"/>
-      <c r="G312" s="31"/>
+    <row r="312" spans="2:9">
+      <c r="B312" s="25">
+        <v>45200</v>
+      </c>
+      <c r="C312" s="24">
+        <v>0</v>
+      </c>
+      <c r="D312" s="24">
+        <v>0</v>
+      </c>
+      <c r="E312" s="24">
+        <v>0</v>
+      </c>
+      <c r="F312" s="26">
+        <v>0</v>
+      </c>
+      <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="2:9" ht="38.25">
-      <c r="B313" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D313" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F313" s="14" t="s">
-        <v>25</v>
+    <row r="313" spans="2:9">
+      <c r="B313" s="25">
+        <v>45231</v>
+      </c>
+      <c r="C313" s="24">
+        <v>0</v>
+      </c>
+      <c r="D313" s="24">
+        <v>0</v>
+      </c>
+      <c r="E313" s="24">
+        <v>0</v>
+      </c>
+      <c r="F313" s="26">
+        <v>0</v>
       </c>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
     </row>
     <row r="314" spans="2:9">
-      <c r="B314" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C314" s="3">
-        <v>0</v>
-      </c>
-      <c r="D314" s="3">
-        <v>0</v>
-      </c>
-      <c r="E314" s="3">
-        <v>0</v>
-      </c>
-      <c r="F314" s="5">
+      <c r="B314" s="25">
+        <v>45261</v>
+      </c>
+      <c r="C314" s="24">
+        <v>0</v>
+      </c>
+      <c r="D314" s="24">
+        <v>0</v>
+      </c>
+      <c r="E314" s="24">
+        <v>0</v>
+      </c>
+      <c r="F314" s="26">
         <v>0</v>
       </c>
       <c r="G314" s="2"/>
@@ -8019,19 +8133,19 @@
       <c r="I314" s="2"/>
     </row>
     <row r="315" spans="2:9">
-      <c r="B315" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C315" s="3">
-        <v>0</v>
-      </c>
-      <c r="D315" s="3">
-        <v>0</v>
-      </c>
-      <c r="E315" s="3">
-        <v>0</v>
-      </c>
-      <c r="F315" s="5">
+      <c r="B315" s="25">
+        <v>45292</v>
+      </c>
+      <c r="C315" s="24">
+        <v>0</v>
+      </c>
+      <c r="D315" s="24">
+        <v>0</v>
+      </c>
+      <c r="E315" s="24">
+        <v>0</v>
+      </c>
+      <c r="F315" s="26">
         <v>0</v>
       </c>
       <c r="G315" s="2"/>
@@ -8039,19 +8153,19 @@
       <c r="I315" s="2"/>
     </row>
     <row r="316" spans="2:9">
-      <c r="B316" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C316" s="3">
-        <v>0</v>
-      </c>
-      <c r="D316" s="3">
-        <v>0</v>
-      </c>
-      <c r="E316" s="3">
-        <v>0</v>
-      </c>
-      <c r="F316" s="5">
+      <c r="B316" s="25">
+        <v>45323</v>
+      </c>
+      <c r="C316" s="24">
+        <v>0</v>
+      </c>
+      <c r="D316" s="24">
+        <v>0</v>
+      </c>
+      <c r="E316" s="24">
+        <v>0</v>
+      </c>
+      <c r="F316" s="26">
         <v>0</v>
       </c>
       <c r="G316" s="2"/>
@@ -8059,19 +8173,19 @@
       <c r="I316" s="2"/>
     </row>
     <row r="317" spans="2:9">
-      <c r="B317" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C317" s="3">
-        <v>0</v>
-      </c>
-      <c r="D317" s="3">
-        <v>0</v>
-      </c>
-      <c r="E317" s="3">
-        <v>0</v>
-      </c>
-      <c r="F317" s="5">
+      <c r="B317" s="25">
+        <v>45352</v>
+      </c>
+      <c r="C317" s="24">
+        <v>0</v>
+      </c>
+      <c r="D317" s="24">
+        <v>0</v>
+      </c>
+      <c r="E317" s="24">
+        <v>0</v>
+      </c>
+      <c r="F317" s="26">
         <v>0</v>
       </c>
       <c r="G317" s="2"/>
@@ -8079,19 +8193,19 @@
       <c r="I317" s="2"/>
     </row>
     <row r="318" spans="2:9">
-      <c r="B318" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C318" s="3">
-        <v>0</v>
-      </c>
-      <c r="D318" s="3">
-        <v>0</v>
-      </c>
-      <c r="E318" s="3">
-        <v>0</v>
-      </c>
-      <c r="F318" s="5">
+      <c r="B318" s="25">
+        <v>45383</v>
+      </c>
+      <c r="C318" s="24">
+        <v>0</v>
+      </c>
+      <c r="D318" s="24">
+        <v>0</v>
+      </c>
+      <c r="E318" s="24">
+        <v>0</v>
+      </c>
+      <c r="F318" s="26">
         <v>0</v>
       </c>
       <c r="G318" s="2"/>
@@ -8099,19 +8213,19 @@
       <c r="I318" s="2"/>
     </row>
     <row r="319" spans="2:9">
-      <c r="B319" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C319" s="3">
-        <v>0</v>
-      </c>
-      <c r="D319" s="3">
-        <v>0</v>
-      </c>
-      <c r="E319" s="3">
-        <v>0</v>
-      </c>
-      <c r="F319" s="5">
+      <c r="B319" s="25">
+        <v>45413</v>
+      </c>
+      <c r="C319" s="24">
+        <v>0</v>
+      </c>
+      <c r="D319" s="24">
+        <v>0</v>
+      </c>
+      <c r="E319" s="24">
+        <v>0</v>
+      </c>
+      <c r="F319" s="26">
         <v>0</v>
       </c>
       <c r="G319" s="2"/>
@@ -8119,19 +8233,19 @@
       <c r="I319" s="2"/>
     </row>
     <row r="320" spans="2:9">
-      <c r="B320" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C320" s="3">
-        <v>0</v>
-      </c>
-      <c r="D320" s="3">
-        <v>0</v>
-      </c>
-      <c r="E320" s="3">
-        <v>0</v>
-      </c>
-      <c r="F320" s="5">
+      <c r="B320" s="25">
+        <v>45444</v>
+      </c>
+      <c r="C320" s="24">
+        <v>0</v>
+      </c>
+      <c r="D320" s="24">
+        <v>0</v>
+      </c>
+      <c r="E320" s="24">
+        <v>0</v>
+      </c>
+      <c r="F320" s="26">
         <v>0</v>
       </c>
       <c r="G320" s="2"/>
@@ -8139,51 +8253,574 @@
       <c r="I320" s="2"/>
     </row>
     <row r="321" spans="2:9">
-      <c r="B321" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C321" s="3">
-        <v>0</v>
-      </c>
-      <c r="D321" s="3">
-        <v>0</v>
-      </c>
-      <c r="E321" s="3">
-        <v>0</v>
-      </c>
-      <c r="F321" s="5">
+      <c r="B321" s="25">
+        <v>45474</v>
+      </c>
+      <c r="C321" s="24">
+        <v>0</v>
+      </c>
+      <c r="D321" s="24">
+        <v>0</v>
+      </c>
+      <c r="E321" s="24">
+        <v>0</v>
+      </c>
+      <c r="F321" s="26">
         <v>0</v>
       </c>
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B322" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C322" s="7">
-        <v>0</v>
-      </c>
-      <c r="D322" s="7">
-        <v>0</v>
-      </c>
-      <c r="E322" s="7">
-        <v>0</v>
-      </c>
-      <c r="F322" s="8">
+    <row r="322" spans="2:9">
+      <c r="B322" s="25">
+        <v>45505</v>
+      </c>
+      <c r="C322" s="24">
+        <v>0</v>
+      </c>
+      <c r="D322" s="24">
+        <v>0</v>
+      </c>
+      <c r="E322" s="24">
+        <v>0</v>
+      </c>
+      <c r="F322" s="26">
         <v>0</v>
       </c>
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
     </row>
+    <row r="323" spans="2:9">
+      <c r="B323" s="25">
+        <v>45536</v>
+      </c>
+      <c r="C323" s="24">
+        <v>0</v>
+      </c>
+      <c r="D323" s="24">
+        <v>0</v>
+      </c>
+      <c r="E323" s="24">
+        <v>0</v>
+      </c>
+      <c r="F323" s="26">
+        <v>0</v>
+      </c>
+      <c r="G323" s="2"/>
+      <c r="H323" s="2"/>
+      <c r="I323" s="2"/>
+    </row>
+    <row r="324" spans="2:9">
+      <c r="B324" s="25">
+        <v>45566</v>
+      </c>
+      <c r="C324" s="24">
+        <v>0</v>
+      </c>
+      <c r="D324" s="24">
+        <v>0</v>
+      </c>
+      <c r="E324" s="24">
+        <v>0</v>
+      </c>
+      <c r="F324" s="26">
+        <v>0</v>
+      </c>
+      <c r="G324" s="2"/>
+      <c r="H324" s="2"/>
+      <c r="I324" s="2"/>
+    </row>
+    <row r="325" spans="2:9">
+      <c r="B325" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C325" s="24">
+        <v>0</v>
+      </c>
+      <c r="D325" s="24">
+        <v>0</v>
+      </c>
+      <c r="E325" s="24">
+        <v>0</v>
+      </c>
+      <c r="F325" s="26">
+        <v>0</v>
+      </c>
+      <c r="G325" s="2"/>
+      <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
+    </row>
+    <row r="326" spans="2:9">
+      <c r="B326" s="25">
+        <v>45627</v>
+      </c>
+      <c r="C326" s="24">
+        <v>0</v>
+      </c>
+      <c r="D326" s="24">
+        <v>0</v>
+      </c>
+      <c r="E326" s="24">
+        <v>0</v>
+      </c>
+      <c r="F326" s="26">
+        <v>0</v>
+      </c>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="2"/>
+    </row>
+    <row r="327" spans="2:9">
+      <c r="B327" s="25">
+        <v>45658</v>
+      </c>
+      <c r="C327" s="24">
+        <v>0</v>
+      </c>
+      <c r="D327" s="24">
+        <v>0</v>
+      </c>
+      <c r="E327" s="24">
+        <v>0</v>
+      </c>
+      <c r="F327" s="26">
+        <v>0</v>
+      </c>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2"/>
+      <c r="I327" s="2"/>
+    </row>
+    <row r="328" spans="2:9">
+      <c r="B328" s="25">
+        <v>45689</v>
+      </c>
+      <c r="C328" s="24">
+        <v>0</v>
+      </c>
+      <c r="D328" s="24">
+        <v>0</v>
+      </c>
+      <c r="E328" s="24">
+        <v>0</v>
+      </c>
+      <c r="F328" s="26">
+        <v>0</v>
+      </c>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+    </row>
+    <row r="329" spans="2:9">
+      <c r="B329" s="25">
+        <v>45717</v>
+      </c>
+      <c r="C329" s="24">
+        <v>0</v>
+      </c>
+      <c r="D329" s="24">
+        <v>0</v>
+      </c>
+      <c r="E329" s="24">
+        <v>0</v>
+      </c>
+      <c r="F329" s="26">
+        <v>0</v>
+      </c>
+      <c r="G329" s="2"/>
+      <c r="H329" s="2"/>
+      <c r="I329" s="2"/>
+    </row>
+    <row r="330" spans="2:9">
+      <c r="B330" s="25">
+        <v>45748</v>
+      </c>
+      <c r="C330" s="24">
+        <v>0</v>
+      </c>
+      <c r="D330" s="24">
+        <v>0</v>
+      </c>
+      <c r="E330" s="24">
+        <v>0</v>
+      </c>
+      <c r="F330" s="26">
+        <v>0</v>
+      </c>
+      <c r="G330" s="2"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
+    </row>
+    <row r="331" spans="2:9">
+      <c r="B331" s="25">
+        <v>45778</v>
+      </c>
+      <c r="C331" s="24">
+        <v>0</v>
+      </c>
+      <c r="D331" s="24">
+        <v>0</v>
+      </c>
+      <c r="E331" s="24">
+        <v>0</v>
+      </c>
+      <c r="F331" s="26">
+        <v>0</v>
+      </c>
+      <c r="G331" s="2"/>
+      <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
+    </row>
+    <row r="332" spans="2:9">
+      <c r="B332" s="25">
+        <v>45809</v>
+      </c>
+      <c r="C332" s="24">
+        <v>0</v>
+      </c>
+      <c r="D332" s="24">
+        <v>0</v>
+      </c>
+      <c r="E332" s="24">
+        <v>0</v>
+      </c>
+      <c r="F332" s="26">
+        <v>0</v>
+      </c>
+      <c r="G332" s="2"/>
+      <c r="H332" s="2"/>
+      <c r="I332" s="2"/>
+    </row>
+    <row r="333" spans="2:9">
+      <c r="B333" s="25">
+        <v>45839</v>
+      </c>
+      <c r="C333" s="24">
+        <v>0</v>
+      </c>
+      <c r="D333" s="24">
+        <v>0</v>
+      </c>
+      <c r="E333" s="24">
+        <v>0</v>
+      </c>
+      <c r="F333" s="26">
+        <v>0</v>
+      </c>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+    </row>
+    <row r="334" spans="2:9">
+      <c r="B334" s="25">
+        <v>45870</v>
+      </c>
+      <c r="C334" s="24">
+        <v>0</v>
+      </c>
+      <c r="D334" s="24">
+        <v>0</v>
+      </c>
+      <c r="E334" s="24">
+        <v>0</v>
+      </c>
+      <c r="F334" s="26">
+        <v>0</v>
+      </c>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+    </row>
+    <row r="335" spans="2:9">
+      <c r="B335" s="25">
+        <v>45901</v>
+      </c>
+      <c r="C335" s="24">
+        <v>0</v>
+      </c>
+      <c r="D335" s="24">
+        <v>0</v>
+      </c>
+      <c r="E335" s="24">
+        <v>0</v>
+      </c>
+      <c r="F335" s="26">
+        <v>0</v>
+      </c>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+    </row>
+    <row r="336" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B336" s="27">
+        <v>45931</v>
+      </c>
+      <c r="C336" s="28">
+        <v>0</v>
+      </c>
+      <c r="D336" s="28">
+        <v>0</v>
+      </c>
+      <c r="E336" s="28">
+        <v>0</v>
+      </c>
+      <c r="F336" s="29">
+        <v>0</v>
+      </c>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+    </row>
+    <row r="337" spans="2:9">
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2"/>
+      <c r="I337" s="2"/>
+    </row>
+    <row r="338" spans="2:9">
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+    </row>
+    <row r="339" spans="2:9">
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
+    </row>
+    <row r="340" spans="2:9" ht="18.75" thickBot="1">
+      <c r="B340" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C340" s="31"/>
+      <c r="D340" s="31"/>
+      <c r="E340" s="31"/>
+      <c r="F340" s="31"/>
+      <c r="G340" s="31"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+    </row>
+    <row r="341" spans="2:9" ht="38.25">
+      <c r="B341" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C341" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D341" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E341" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F341" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+    </row>
+    <row r="342" spans="2:9">
+      <c r="B342" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C342" s="3">
+        <v>0</v>
+      </c>
+      <c r="D342" s="3">
+        <v>0</v>
+      </c>
+      <c r="E342" s="3">
+        <v>0</v>
+      </c>
+      <c r="F342" s="5">
+        <v>0</v>
+      </c>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+    </row>
+    <row r="343" spans="2:9">
+      <c r="B343" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C343" s="3">
+        <v>0</v>
+      </c>
+      <c r="D343" s="3">
+        <v>0</v>
+      </c>
+      <c r="E343" s="3">
+        <v>0</v>
+      </c>
+      <c r="F343" s="5">
+        <v>0</v>
+      </c>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+    </row>
+    <row r="344" spans="2:9">
+      <c r="B344" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C344" s="3">
+        <v>0</v>
+      </c>
+      <c r="D344" s="3">
+        <v>0</v>
+      </c>
+      <c r="E344" s="3">
+        <v>0</v>
+      </c>
+      <c r="F344" s="5">
+        <v>0</v>
+      </c>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
+    </row>
+    <row r="345" spans="2:9">
+      <c r="B345" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C345" s="3">
+        <v>0</v>
+      </c>
+      <c r="D345" s="3">
+        <v>0</v>
+      </c>
+      <c r="E345" s="3">
+        <v>0</v>
+      </c>
+      <c r="F345" s="5">
+        <v>0</v>
+      </c>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+    </row>
+    <row r="346" spans="2:9">
+      <c r="B346" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C346" s="3">
+        <v>0</v>
+      </c>
+      <c r="D346" s="3">
+        <v>0</v>
+      </c>
+      <c r="E346" s="3">
+        <v>0</v>
+      </c>
+      <c r="F346" s="5">
+        <v>0</v>
+      </c>
+      <c r="G346" s="2"/>
+      <c r="H346" s="2"/>
+      <c r="I346" s="2"/>
+    </row>
+    <row r="347" spans="2:9">
+      <c r="B347" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C347" s="3">
+        <v>0</v>
+      </c>
+      <c r="D347" s="3">
+        <v>0</v>
+      </c>
+      <c r="E347" s="3">
+        <v>0</v>
+      </c>
+      <c r="F347" s="5">
+        <v>0</v>
+      </c>
+      <c r="G347" s="2"/>
+      <c r="H347" s="2"/>
+      <c r="I347" s="2"/>
+    </row>
+    <row r="348" spans="2:9">
+      <c r="B348" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C348" s="3">
+        <v>0</v>
+      </c>
+      <c r="D348" s="3">
+        <v>0</v>
+      </c>
+      <c r="E348" s="3">
+        <v>0</v>
+      </c>
+      <c r="F348" s="5">
+        <v>0</v>
+      </c>
+      <c r="G348" s="2"/>
+      <c r="H348" s="2"/>
+      <c r="I348" s="2"/>
+    </row>
+    <row r="349" spans="2:9">
+      <c r="B349" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C349" s="3">
+        <v>0</v>
+      </c>
+      <c r="D349" s="3">
+        <v>0</v>
+      </c>
+      <c r="E349" s="3">
+        <v>0</v>
+      </c>
+      <c r="F349" s="5">
+        <v>0</v>
+      </c>
+      <c r="G349" s="2"/>
+      <c r="H349" s="2"/>
+      <c r="I349" s="2"/>
+    </row>
+    <row r="350" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B350" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C350" s="7">
+        <v>0</v>
+      </c>
+      <c r="D350" s="7">
+        <v>0</v>
+      </c>
+      <c r="E350" s="7">
+        <v>0</v>
+      </c>
+      <c r="F350" s="8">
+        <v>0</v>
+      </c>
+      <c r="G350" s="2"/>
+      <c r="H350" s="2"/>
+      <c r="I350" s="2"/>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZZgQoi5Cx+hEksZPHpNJ9DUbQGB6oTklW+IAuLdn2qU7Hn8tbxFr0/NGWfuGA1pnpJ31TTeypnI62zfG9oAKjw==" saltValue="qII/OKUY1hIR7vgzcztckw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B312:G312"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B340:G340"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8192,10 +8829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:J322"/>
+  <dimension ref="B1:J350"/>
   <sheetViews>
-    <sheetView topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="D327" sqref="D327"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47" defaultRowHeight="15"/>
@@ -14396,536 +15033,620 @@
       </c>
     </row>
     <row r="262" spans="2:9">
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
+      <c r="B262" s="22">
+        <v>45839</v>
+      </c>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="21"/>
     </row>
     <row r="263" spans="2:9">
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-    </row>
-    <row r="264" spans="2:9" ht="18.75" thickBot="1">
-      <c r="B264" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="33"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-    </row>
-    <row r="265" spans="2:9" ht="38.25">
-      <c r="B265" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C265" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D265" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
+      <c r="B263" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+      <c r="F263" s="3">
+        <v>0</v>
+      </c>
+      <c r="G263" s="3">
+        <v>0</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0</v>
+      </c>
+      <c r="I263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
+      <c r="B264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" s="3">
+        <v>0</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0</v>
+      </c>
+      <c r="E264" s="3">
+        <v>0</v>
+      </c>
+      <c r="F264" s="3">
+        <v>0</v>
+      </c>
+      <c r="G264" s="3">
+        <v>0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0</v>
+      </c>
+      <c r="I264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9">
+      <c r="B265" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>0</v>
+      </c>
+      <c r="G265" s="3">
+        <v>0</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0</v>
+      </c>
+      <c r="I265" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="2:9">
-      <c r="B266" s="25">
-        <v>44531</v>
+      <c r="B266" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C266" s="3">
-        <f>+C9</f>
         <v>0</v>
       </c>
       <c r="D266" s="3">
-        <f>+D9</f>
         <v>0</v>
       </c>
       <c r="E266" s="3">
-        <f>+F9</f>
-        <v>0</v>
-      </c>
-      <c r="F266" s="5">
-        <f>+F5</f>
-        <v>0</v>
-      </c>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-    </row>
-    <row r="267" spans="2:9">
-      <c r="B267" s="25">
-        <v>44562</v>
-      </c>
-      <c r="C267" s="3">
-        <v>0</v>
-      </c>
-      <c r="D267" s="3">
-        <v>0</v>
-      </c>
-      <c r="E267" s="3">
-        <v>0</v>
-      </c>
-      <c r="F267" s="5">
-        <v>0</v>
-      </c>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F266" s="3">
+        <v>0</v>
+      </c>
+      <c r="G266" s="3">
+        <v>0</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0</v>
+      </c>
+      <c r="I266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B267" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="7">
+        <v>0</v>
+      </c>
+      <c r="D267" s="7">
+        <v>0</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0</v>
+      </c>
+      <c r="F267" s="7">
+        <v>0</v>
+      </c>
+      <c r="G267" s="7">
+        <v>0</v>
+      </c>
+      <c r="H267" s="7">
+        <v>0</v>
+      </c>
+      <c r="I267" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="2:9">
-      <c r="B268" s="25">
-        <v>44593</v>
-      </c>
-      <c r="C268" s="24">
-        <v>0</v>
-      </c>
-      <c r="D268" s="24">
-        <v>0</v>
-      </c>
-      <c r="E268" s="24">
-        <v>0</v>
-      </c>
-      <c r="F268" s="26">
-        <v>0</v>
-      </c>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
+      <c r="B268" s="22">
+        <v>45870</v>
+      </c>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="21"/>
     </row>
     <row r="269" spans="2:9">
-      <c r="B269" s="25">
-        <v>44621</v>
-      </c>
-      <c r="C269" s="24">
-        <v>0</v>
-      </c>
-      <c r="D269" s="24">
-        <v>0</v>
-      </c>
-      <c r="E269" s="24">
-        <v>0</v>
-      </c>
-      <c r="F269" s="26">
-        <v>0</v>
-      </c>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
+      <c r="B269" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" s="3">
+        <v>0</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+      <c r="F269" s="3">
+        <v>0</v>
+      </c>
+      <c r="G269" s="3">
+        <v>0</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0</v>
+      </c>
+      <c r="I269" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="2:9">
-      <c r="B270" s="25">
-        <v>44652</v>
-      </c>
-      <c r="C270" s="24">
-        <v>0</v>
-      </c>
-      <c r="D270" s="24">
-        <v>0</v>
-      </c>
-      <c r="E270" s="24">
-        <v>0</v>
-      </c>
-      <c r="F270" s="26">
-        <v>0</v>
-      </c>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
+      <c r="B270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270" s="3">
+        <v>0</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0</v>
+      </c>
+      <c r="F270" s="3">
+        <v>0</v>
+      </c>
+      <c r="G270" s="3">
+        <v>0</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I270" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="2:9">
-      <c r="B271" s="25">
-        <v>44682</v>
-      </c>
-      <c r="C271" s="24">
-        <v>0</v>
-      </c>
-      <c r="D271" s="24">
-        <v>0</v>
-      </c>
-      <c r="E271" s="24">
-        <v>0</v>
-      </c>
-      <c r="F271" s="26">
-        <v>0</v>
-      </c>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
+      <c r="B271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="3">
+        <v>0</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0</v>
+      </c>
+      <c r="E271" s="3">
+        <v>0</v>
+      </c>
+      <c r="F271" s="3">
+        <v>0</v>
+      </c>
+      <c r="G271" s="3">
+        <v>0</v>
+      </c>
+      <c r="H271" s="3">
+        <v>0</v>
+      </c>
+      <c r="I271" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="2:9">
-      <c r="B272" s="25">
-        <v>44713</v>
-      </c>
-      <c r="C272" s="24">
-        <v>0</v>
-      </c>
-      <c r="D272" s="24">
-        <v>0</v>
-      </c>
-      <c r="E272" s="24">
-        <v>0</v>
-      </c>
-      <c r="F272" s="26">
-        <v>0</v>
-      </c>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-    </row>
-    <row r="273" spans="2:9">
-      <c r="B273" s="25">
-        <v>44743</v>
-      </c>
-      <c r="C273" s="24">
-        <v>0</v>
-      </c>
-      <c r="D273" s="24">
-        <v>0</v>
-      </c>
-      <c r="E273" s="24">
-        <v>0</v>
-      </c>
-      <c r="F273" s="26">
-        <v>0</v>
-      </c>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
+      <c r="B272" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" s="3">
+        <v>0</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0</v>
+      </c>
+      <c r="E272" s="3">
+        <v>0</v>
+      </c>
+      <c r="F272" s="3">
+        <v>0</v>
+      </c>
+      <c r="G272" s="3">
+        <v>0</v>
+      </c>
+      <c r="H272" s="3">
+        <v>0</v>
+      </c>
+      <c r="I272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B273" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" s="7">
+        <v>0</v>
+      </c>
+      <c r="D273" s="7">
+        <v>0</v>
+      </c>
+      <c r="E273" s="7">
+        <v>0</v>
+      </c>
+      <c r="F273" s="7">
+        <v>0</v>
+      </c>
+      <c r="G273" s="7">
+        <v>0</v>
+      </c>
+      <c r="H273" s="7">
+        <v>0</v>
+      </c>
+      <c r="I273" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="2:9">
-      <c r="B274" s="25">
-        <v>44774</v>
-      </c>
-      <c r="C274" s="24">
-        <v>0</v>
-      </c>
-      <c r="D274" s="24">
-        <v>0</v>
-      </c>
-      <c r="E274" s="24">
-        <v>0</v>
-      </c>
-      <c r="F274" s="26">
-        <v>0</v>
-      </c>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
+      <c r="B274" s="22">
+        <v>45901</v>
+      </c>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="21"/>
     </row>
     <row r="275" spans="2:9">
-      <c r="B275" s="25">
-        <v>44805</v>
-      </c>
-      <c r="C275" s="24">
-        <v>0</v>
-      </c>
-      <c r="D275" s="24">
-        <v>0</v>
-      </c>
-      <c r="E275" s="24">
-        <v>0</v>
-      </c>
-      <c r="F275" s="26">
-        <v>0</v>
-      </c>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
+      <c r="B275" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" s="3">
+        <v>0</v>
+      </c>
+      <c r="D275" s="3">
+        <v>0</v>
+      </c>
+      <c r="E275" s="3">
+        <v>0</v>
+      </c>
+      <c r="F275" s="3">
+        <v>0</v>
+      </c>
+      <c r="G275" s="3">
+        <v>0</v>
+      </c>
+      <c r="H275" s="3">
+        <v>0</v>
+      </c>
+      <c r="I275" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="2:9">
-      <c r="B276" s="25">
-        <v>44835</v>
-      </c>
-      <c r="C276" s="24">
-        <v>0</v>
-      </c>
-      <c r="D276" s="24">
-        <v>0</v>
-      </c>
-      <c r="E276" s="24">
-        <v>0</v>
-      </c>
-      <c r="F276" s="26">
-        <v>0</v>
-      </c>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
+      <c r="B276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" s="3">
+        <v>0</v>
+      </c>
+      <c r="D276" s="3">
+        <v>1</v>
+      </c>
+      <c r="E276" s="3">
+        <v>0</v>
+      </c>
+      <c r="F276" s="3">
+        <v>1</v>
+      </c>
+      <c r="G276" s="3">
+        <v>0</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0</v>
+      </c>
+      <c r="I276" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="277" spans="2:9">
-      <c r="B277" s="25">
-        <v>44866</v>
-      </c>
-      <c r="C277" s="24">
-        <v>0</v>
-      </c>
-      <c r="D277" s="24">
-        <v>0</v>
-      </c>
-      <c r="E277" s="24">
-        <v>0</v>
-      </c>
-      <c r="F277" s="26">
-        <v>0</v>
-      </c>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
+      <c r="B277" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="3">
+        <v>0</v>
+      </c>
+      <c r="D277" s="3">
+        <v>0</v>
+      </c>
+      <c r="E277" s="3">
+        <v>0</v>
+      </c>
+      <c r="F277" s="3">
+        <v>0</v>
+      </c>
+      <c r="G277" s="3">
+        <v>0</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0</v>
+      </c>
+      <c r="I277" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="2:9">
-      <c r="B278" s="25">
-        <v>44896</v>
-      </c>
-      <c r="C278" s="24">
-        <v>0</v>
-      </c>
-      <c r="D278" s="24">
-        <v>0</v>
-      </c>
-      <c r="E278" s="24">
-        <v>0</v>
-      </c>
-      <c r="F278" s="26">
-        <v>0</v>
-      </c>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-    </row>
-    <row r="279" spans="2:9">
-      <c r="B279" s="25">
-        <v>44927</v>
-      </c>
-      <c r="C279" s="24">
-        <v>0</v>
-      </c>
-      <c r="D279" s="24">
-        <v>0</v>
-      </c>
-      <c r="E279" s="24">
-        <v>0</v>
-      </c>
-      <c r="F279" s="26">
-        <v>0</v>
-      </c>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
+      <c r="B278" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="3">
+        <v>0</v>
+      </c>
+      <c r="D278" s="3">
+        <v>0</v>
+      </c>
+      <c r="E278" s="3">
+        <v>0</v>
+      </c>
+      <c r="F278" s="3">
+        <v>0</v>
+      </c>
+      <c r="G278" s="3">
+        <v>0</v>
+      </c>
+      <c r="H278" s="3">
+        <v>0</v>
+      </c>
+      <c r="I278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B279" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279" s="7">
+        <v>0</v>
+      </c>
+      <c r="D279" s="7">
+        <v>0</v>
+      </c>
+      <c r="E279" s="7">
+        <v>0</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0</v>
+      </c>
+      <c r="G279" s="7">
+        <v>0</v>
+      </c>
+      <c r="H279" s="7">
+        <v>0</v>
+      </c>
+      <c r="I279" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="2:9">
-      <c r="B280" s="25">
-        <v>44958</v>
-      </c>
-      <c r="C280" s="24">
-        <v>0</v>
-      </c>
-      <c r="D280" s="24">
-        <v>0</v>
-      </c>
-      <c r="E280" s="24">
-        <v>0</v>
-      </c>
-      <c r="F280" s="26">
-        <v>0</v>
-      </c>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
+      <c r="B280" s="22">
+        <v>45931</v>
+      </c>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="20"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="21"/>
     </row>
     <row r="281" spans="2:9">
-      <c r="B281" s="25">
-        <v>44986</v>
-      </c>
-      <c r="C281" s="24">
-        <v>0</v>
-      </c>
-      <c r="D281" s="24">
-        <v>0</v>
-      </c>
-      <c r="E281" s="24">
-        <v>0</v>
-      </c>
-      <c r="F281" s="26">
-        <v>0</v>
-      </c>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
+      <c r="B281" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="3">
+        <v>0</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0</v>
+      </c>
+      <c r="E281" s="3">
+        <v>0</v>
+      </c>
+      <c r="F281" s="3">
+        <v>0</v>
+      </c>
+      <c r="G281" s="3">
+        <v>0</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0</v>
+      </c>
+      <c r="I281" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="2:9">
-      <c r="B282" s="25">
-        <v>45017</v>
-      </c>
-      <c r="C282" s="24">
-        <v>0</v>
-      </c>
-      <c r="D282" s="24">
-        <v>0</v>
-      </c>
-      <c r="E282" s="24">
-        <v>0</v>
-      </c>
-      <c r="F282" s="26">
-        <v>0</v>
-      </c>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
+      <c r="B282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="3">
+        <v>0</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0</v>
+      </c>
+      <c r="E282" s="3">
+        <v>0</v>
+      </c>
+      <c r="F282" s="3">
+        <v>0</v>
+      </c>
+      <c r="G282" s="3">
+        <v>0</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0</v>
+      </c>
+      <c r="I282" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="2:9">
-      <c r="B283" s="25">
-        <v>45047</v>
-      </c>
-      <c r="C283" s="24">
-        <v>0</v>
-      </c>
-      <c r="D283" s="24">
-        <v>0</v>
-      </c>
-      <c r="E283" s="24">
-        <v>0</v>
-      </c>
-      <c r="F283" s="26">
-        <v>0</v>
-      </c>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
+      <c r="B283" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" s="3">
+        <v>0</v>
+      </c>
+      <c r="D283" s="3">
+        <v>0</v>
+      </c>
+      <c r="E283" s="3">
+        <v>0</v>
+      </c>
+      <c r="F283" s="3">
+        <v>0</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0</v>
+      </c>
+      <c r="H283" s="3">
+        <v>0</v>
+      </c>
+      <c r="I283" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="2:9">
-      <c r="B284" s="25">
-        <v>45078</v>
-      </c>
-      <c r="C284" s="24">
-        <v>0</v>
-      </c>
-      <c r="D284" s="24">
-        <v>0</v>
-      </c>
-      <c r="E284" s="24">
-        <v>0</v>
-      </c>
-      <c r="F284" s="26">
-        <v>0</v>
-      </c>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-    </row>
-    <row r="285" spans="2:9">
-      <c r="B285" s="25">
-        <v>45108</v>
-      </c>
-      <c r="C285" s="24">
-        <v>0</v>
-      </c>
-      <c r="D285" s="24">
-        <v>0</v>
-      </c>
-      <c r="E285" s="24">
-        <v>0</v>
-      </c>
-      <c r="F285" s="26">
-        <v>0</v>
-      </c>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
+      <c r="B284" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="3">
+        <v>0</v>
+      </c>
+      <c r="D284" s="3">
+        <v>0</v>
+      </c>
+      <c r="E284" s="3">
+        <v>0</v>
+      </c>
+      <c r="F284" s="3">
+        <v>0</v>
+      </c>
+      <c r="G284" s="3">
+        <v>0</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0</v>
+      </c>
+      <c r="I284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B285" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="7">
+        <v>0</v>
+      </c>
+      <c r="D285" s="7">
+        <v>0</v>
+      </c>
+      <c r="E285" s="7">
+        <v>0</v>
+      </c>
+      <c r="F285" s="7">
+        <v>0</v>
+      </c>
+      <c r="G285" s="7">
+        <v>0</v>
+      </c>
+      <c r="H285" s="7">
+        <v>0</v>
+      </c>
+      <c r="I285" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="2:9">
-      <c r="B286" s="25">
-        <v>45139</v>
-      </c>
-      <c r="C286" s="24">
-        <v>0</v>
-      </c>
-      <c r="D286" s="24">
-        <v>0</v>
-      </c>
-      <c r="E286" s="24">
-        <v>0</v>
-      </c>
-      <c r="F286" s="26">
-        <v>0</v>
-      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
     </row>
     <row r="287" spans="2:9">
-      <c r="B287" s="25">
-        <v>45170</v>
-      </c>
-      <c r="C287" s="24">
-        <v>0</v>
-      </c>
-      <c r="D287" s="24">
-        <v>0</v>
-      </c>
-      <c r="E287" s="24">
-        <v>0</v>
-      </c>
-      <c r="F287" s="26">
-        <v>0</v>
-      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
     </row>
-    <row r="288" spans="2:9">
-      <c r="B288" s="25">
-        <v>45200</v>
-      </c>
-      <c r="C288" s="24">
-        <v>0</v>
-      </c>
-      <c r="D288" s="24">
-        <v>0</v>
-      </c>
-      <c r="E288" s="24">
-        <v>0</v>
-      </c>
-      <c r="F288" s="26">
-        <v>0</v>
-      </c>
+    <row r="288" spans="2:9" ht="18.75" thickBot="1">
+      <c r="B288" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" s="31"/>
+      <c r="D288" s="31"/>
+      <c r="E288" s="31"/>
+      <c r="F288" s="31"/>
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
     </row>
-    <row r="289" spans="2:9">
-      <c r="B289" s="25">
-        <v>45231</v>
-      </c>
-      <c r="C289" s="24">
-        <v>0</v>
-      </c>
-      <c r="D289" s="24">
-        <v>0</v>
-      </c>
-      <c r="E289" s="24">
-        <v>0</v>
-      </c>
-      <c r="F289" s="26">
-        <v>0</v>
+    <row r="289" spans="2:9" ht="38.25">
+      <c r="B289" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
@@ -14933,18 +15654,22 @@
     </row>
     <row r="290" spans="2:9">
       <c r="B290" s="25">
-        <v>45261</v>
-      </c>
-      <c r="C290" s="24">
-        <v>0</v>
-      </c>
-      <c r="D290" s="24">
-        <v>0</v>
-      </c>
-      <c r="E290" s="24">
-        <v>0</v>
-      </c>
-      <c r="F290" s="26">
+        <v>44531</v>
+      </c>
+      <c r="C290" s="3">
+        <f>+C9</f>
+        <v>0</v>
+      </c>
+      <c r="D290" s="3">
+        <f>+D9</f>
+        <v>0</v>
+      </c>
+      <c r="E290" s="3">
+        <f>+F9</f>
+        <v>0</v>
+      </c>
+      <c r="F290" s="5">
+        <f>+F5</f>
         <v>0</v>
       </c>
       <c r="G290" s="2"/>
@@ -14953,18 +15678,18 @@
     </row>
     <row r="291" spans="2:9">
       <c r="B291" s="25">
-        <v>45292</v>
-      </c>
-      <c r="C291" s="24">
-        <v>0</v>
-      </c>
-      <c r="D291" s="24">
-        <v>0</v>
-      </c>
-      <c r="E291" s="24">
-        <v>0</v>
-      </c>
-      <c r="F291" s="26">
+        <v>44562</v>
+      </c>
+      <c r="C291" s="3">
+        <v>0</v>
+      </c>
+      <c r="D291" s="3">
+        <v>0</v>
+      </c>
+      <c r="E291" s="3">
+        <v>0</v>
+      </c>
+      <c r="F291" s="5">
         <v>0</v>
       </c>
       <c r="G291" s="2"/>
@@ -14973,7 +15698,7 @@
     </row>
     <row r="292" spans="2:9">
       <c r="B292" s="25">
-        <v>45323</v>
+        <v>44593</v>
       </c>
       <c r="C292" s="24">
         <v>0</v>
@@ -14993,7 +15718,7 @@
     </row>
     <row r="293" spans="2:9">
       <c r="B293" s="25">
-        <v>45352</v>
+        <v>44621</v>
       </c>
       <c r="C293" s="24">
         <v>0</v>
@@ -15013,7 +15738,7 @@
     </row>
     <row r="294" spans="2:9">
       <c r="B294" s="25">
-        <v>45383</v>
+        <v>44652</v>
       </c>
       <c r="C294" s="24">
         <v>0</v>
@@ -15033,7 +15758,7 @@
     </row>
     <row r="295" spans="2:9">
       <c r="B295" s="25">
-        <v>45413</v>
+        <v>44682</v>
       </c>
       <c r="C295" s="24">
         <v>0</v>
@@ -15053,7 +15778,7 @@
     </row>
     <row r="296" spans="2:9">
       <c r="B296" s="25">
-        <v>45444</v>
+        <v>44713</v>
       </c>
       <c r="C296" s="24">
         <v>0</v>
@@ -15073,7 +15798,7 @@
     </row>
     <row r="297" spans="2:9">
       <c r="B297" s="25">
-        <v>45474</v>
+        <v>44743</v>
       </c>
       <c r="C297" s="24">
         <v>0</v>
@@ -15093,7 +15818,7 @@
     </row>
     <row r="298" spans="2:9">
       <c r="B298" s="25">
-        <v>45505</v>
+        <v>44774</v>
       </c>
       <c r="C298" s="24">
         <v>0</v>
@@ -15113,7 +15838,7 @@
     </row>
     <row r="299" spans="2:9">
       <c r="B299" s="25">
-        <v>45536</v>
+        <v>44805</v>
       </c>
       <c r="C299" s="24">
         <v>0</v>
@@ -15133,7 +15858,7 @@
     </row>
     <row r="300" spans="2:9">
       <c r="B300" s="25">
-        <v>45566</v>
+        <v>44835</v>
       </c>
       <c r="C300" s="24">
         <v>0</v>
@@ -15153,7 +15878,7 @@
     </row>
     <row r="301" spans="2:9">
       <c r="B301" s="25">
-        <v>45597</v>
+        <v>44866</v>
       </c>
       <c r="C301" s="24">
         <v>0</v>
@@ -15173,7 +15898,7 @@
     </row>
     <row r="302" spans="2:9">
       <c r="B302" s="25">
-        <v>45627</v>
+        <v>44896</v>
       </c>
       <c r="C302" s="24">
         <v>0</v>
@@ -15193,7 +15918,7 @@
     </row>
     <row r="303" spans="2:9">
       <c r="B303" s="25">
-        <v>45658</v>
+        <v>44927</v>
       </c>
       <c r="C303" s="24">
         <v>0</v>
@@ -15213,7 +15938,7 @@
     </row>
     <row r="304" spans="2:9">
       <c r="B304" s="25">
-        <v>45689</v>
+        <v>44958</v>
       </c>
       <c r="C304" s="24">
         <v>0</v>
@@ -15233,7 +15958,7 @@
     </row>
     <row r="305" spans="2:9">
       <c r="B305" s="25">
-        <v>45717</v>
+        <v>44986</v>
       </c>
       <c r="C305" s="24">
         <v>0</v>
@@ -15253,7 +15978,7 @@
     </row>
     <row r="306" spans="2:9">
       <c r="B306" s="25">
-        <v>45748</v>
+        <v>45017</v>
       </c>
       <c r="C306" s="24">
         <v>0</v>
@@ -15273,7 +15998,7 @@
     </row>
     <row r="307" spans="2:9">
       <c r="B307" s="25">
-        <v>45778</v>
+        <v>45047</v>
       </c>
       <c r="C307" s="24">
         <v>0</v>
@@ -15291,20 +16016,20 @@
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
     </row>
-    <row r="308" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B308" s="27">
-        <v>45809</v>
-      </c>
-      <c r="C308" s="28">
-        <v>0</v>
-      </c>
-      <c r="D308" s="28">
-        <v>0</v>
-      </c>
-      <c r="E308" s="28">
-        <v>0</v>
-      </c>
-      <c r="F308" s="29">
+    <row r="308" spans="2:9">
+      <c r="B308" s="25">
+        <v>45078</v>
+      </c>
+      <c r="C308" s="24">
+        <v>0</v>
+      </c>
+      <c r="D308" s="24">
+        <v>0</v>
+      </c>
+      <c r="E308" s="24">
+        <v>0</v>
+      </c>
+      <c r="F308" s="26">
         <v>0</v>
       </c>
       <c r="G308" s="2"/>
@@ -15312,81 +16037,119 @@
       <c r="I308" s="2"/>
     </row>
     <row r="309" spans="2:9">
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
+      <c r="B309" s="25">
+        <v>45108</v>
+      </c>
+      <c r="C309" s="24">
+        <v>0</v>
+      </c>
+      <c r="D309" s="24">
+        <v>0</v>
+      </c>
+      <c r="E309" s="24">
+        <v>0</v>
+      </c>
+      <c r="F309" s="26">
+        <v>0</v>
+      </c>
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
     </row>
-    <row r="310" spans="2:9" ht="18">
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="23"/>
+    <row r="310" spans="2:9">
+      <c r="B310" s="25">
+        <v>45139</v>
+      </c>
+      <c r="C310" s="24">
+        <v>0</v>
+      </c>
+      <c r="D310" s="24">
+        <v>0</v>
+      </c>
+      <c r="E310" s="24">
+        <v>0</v>
+      </c>
+      <c r="F310" s="26">
+        <v>0</v>
+      </c>
+      <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
     </row>
     <row r="311" spans="2:9">
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
+      <c r="B311" s="25">
+        <v>45170</v>
+      </c>
+      <c r="C311" s="24">
+        <v>0</v>
+      </c>
+      <c r="D311" s="24">
+        <v>0</v>
+      </c>
+      <c r="E311" s="24">
+        <v>0</v>
+      </c>
+      <c r="F311" s="26">
+        <v>0</v>
+      </c>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
     </row>
-    <row r="312" spans="2:9" ht="18.75" thickBot="1">
-      <c r="B312" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C312" s="34"/>
-      <c r="D312" s="34"/>
-      <c r="E312" s="23"/>
-      <c r="F312" s="23"/>
+    <row r="312" spans="2:9">
+      <c r="B312" s="25">
+        <v>45200</v>
+      </c>
+      <c r="C312" s="24">
+        <v>0</v>
+      </c>
+      <c r="D312" s="24">
+        <v>0</v>
+      </c>
+      <c r="E312" s="24">
+        <v>0</v>
+      </c>
+      <c r="F312" s="26">
+        <v>0</v>
+      </c>
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="2:9" ht="38.25">
-      <c r="B313" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C313" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D313" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F313" s="14" t="s">
-        <v>25</v>
+    <row r="313" spans="2:9">
+      <c r="B313" s="25">
+        <v>45231</v>
+      </c>
+      <c r="C313" s="24">
+        <v>0</v>
+      </c>
+      <c r="D313" s="24">
+        <v>0</v>
+      </c>
+      <c r="E313" s="24">
+        <v>0</v>
+      </c>
+      <c r="F313" s="26">
+        <v>0</v>
       </c>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
     </row>
     <row r="314" spans="2:9">
-      <c r="B314" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C314" s="3">
-        <v>0</v>
-      </c>
-      <c r="D314" s="3">
-        <v>0</v>
-      </c>
-      <c r="E314" s="3">
-        <v>0</v>
-      </c>
-      <c r="F314" s="5">
+      <c r="B314" s="25">
+        <v>45261</v>
+      </c>
+      <c r="C314" s="24">
+        <v>0</v>
+      </c>
+      <c r="D314" s="24">
+        <v>0</v>
+      </c>
+      <c r="E314" s="24">
+        <v>0</v>
+      </c>
+      <c r="F314" s="26">
         <v>0</v>
       </c>
       <c r="G314" s="2"/>
@@ -15394,19 +16157,19 @@
       <c r="I314" s="2"/>
     </row>
     <row r="315" spans="2:9">
-      <c r="B315" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C315" s="3">
-        <v>0</v>
-      </c>
-      <c r="D315" s="3">
-        <v>0</v>
-      </c>
-      <c r="E315" s="3">
-        <v>0</v>
-      </c>
-      <c r="F315" s="5">
+      <c r="B315" s="25">
+        <v>45292</v>
+      </c>
+      <c r="C315" s="24">
+        <v>0</v>
+      </c>
+      <c r="D315" s="24">
+        <v>0</v>
+      </c>
+      <c r="E315" s="24">
+        <v>0</v>
+      </c>
+      <c r="F315" s="26">
         <v>0</v>
       </c>
       <c r="G315" s="2"/>
@@ -15414,19 +16177,19 @@
       <c r="I315" s="2"/>
     </row>
     <row r="316" spans="2:9">
-      <c r="B316" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C316" s="3">
-        <v>0</v>
-      </c>
-      <c r="D316" s="3">
-        <v>0</v>
-      </c>
-      <c r="E316" s="3">
-        <v>0</v>
-      </c>
-      <c r="F316" s="5">
+      <c r="B316" s="25">
+        <v>45323</v>
+      </c>
+      <c r="C316" s="24">
+        <v>0</v>
+      </c>
+      <c r="D316" s="24">
+        <v>0</v>
+      </c>
+      <c r="E316" s="24">
+        <v>0</v>
+      </c>
+      <c r="F316" s="26">
         <v>0</v>
       </c>
       <c r="G316" s="2"/>
@@ -15434,19 +16197,19 @@
       <c r="I316" s="2"/>
     </row>
     <row r="317" spans="2:9">
-      <c r="B317" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C317" s="3">
-        <v>0</v>
-      </c>
-      <c r="D317" s="3">
-        <v>0</v>
-      </c>
-      <c r="E317" s="3">
-        <v>0</v>
-      </c>
-      <c r="F317" s="5">
+      <c r="B317" s="25">
+        <v>45352</v>
+      </c>
+      <c r="C317" s="24">
+        <v>0</v>
+      </c>
+      <c r="D317" s="24">
+        <v>0</v>
+      </c>
+      <c r="E317" s="24">
+        <v>0</v>
+      </c>
+      <c r="F317" s="26">
         <v>0</v>
       </c>
       <c r="G317" s="2"/>
@@ -15454,96 +16217,619 @@
       <c r="I317" s="2"/>
     </row>
     <row r="318" spans="2:9">
-      <c r="B318" s="4" t="s">
+      <c r="B318" s="25">
+        <v>45383</v>
+      </c>
+      <c r="C318" s="24">
+        <v>0</v>
+      </c>
+      <c r="D318" s="24">
+        <v>0</v>
+      </c>
+      <c r="E318" s="24">
+        <v>0</v>
+      </c>
+      <c r="F318" s="26">
+        <v>0</v>
+      </c>
+      <c r="G318" s="2"/>
+      <c r="H318" s="2"/>
+      <c r="I318" s="2"/>
+    </row>
+    <row r="319" spans="2:9">
+      <c r="B319" s="25">
+        <v>45413</v>
+      </c>
+      <c r="C319" s="24">
+        <v>0</v>
+      </c>
+      <c r="D319" s="24">
+        <v>0</v>
+      </c>
+      <c r="E319" s="24">
+        <v>0</v>
+      </c>
+      <c r="F319" s="26">
+        <v>0</v>
+      </c>
+      <c r="G319" s="2"/>
+      <c r="H319" s="2"/>
+      <c r="I319" s="2"/>
+    </row>
+    <row r="320" spans="2:9">
+      <c r="B320" s="25">
+        <v>45444</v>
+      </c>
+      <c r="C320" s="24">
+        <v>0</v>
+      </c>
+      <c r="D320" s="24">
+        <v>0</v>
+      </c>
+      <c r="E320" s="24">
+        <v>0</v>
+      </c>
+      <c r="F320" s="26">
+        <v>0</v>
+      </c>
+      <c r="G320" s="2"/>
+      <c r="H320" s="2"/>
+      <c r="I320" s="2"/>
+    </row>
+    <row r="321" spans="2:9">
+      <c r="B321" s="25">
+        <v>45474</v>
+      </c>
+      <c r="C321" s="24">
+        <v>0</v>
+      </c>
+      <c r="D321" s="24">
+        <v>0</v>
+      </c>
+      <c r="E321" s="24">
+        <v>0</v>
+      </c>
+      <c r="F321" s="26">
+        <v>0</v>
+      </c>
+      <c r="G321" s="2"/>
+      <c r="H321" s="2"/>
+      <c r="I321" s="2"/>
+    </row>
+    <row r="322" spans="2:9">
+      <c r="B322" s="25">
+        <v>45505</v>
+      </c>
+      <c r="C322" s="24">
+        <v>0</v>
+      </c>
+      <c r="D322" s="24">
+        <v>0</v>
+      </c>
+      <c r="E322" s="24">
+        <v>0</v>
+      </c>
+      <c r="F322" s="26">
+        <v>0</v>
+      </c>
+      <c r="G322" s="2"/>
+      <c r="H322" s="2"/>
+      <c r="I322" s="2"/>
+    </row>
+    <row r="323" spans="2:9">
+      <c r="B323" s="25">
+        <v>45536</v>
+      </c>
+      <c r="C323" s="24">
+        <v>0</v>
+      </c>
+      <c r="D323" s="24">
+        <v>0</v>
+      </c>
+      <c r="E323" s="24">
+        <v>0</v>
+      </c>
+      <c r="F323" s="26">
+        <v>0</v>
+      </c>
+      <c r="G323" s="2"/>
+      <c r="H323" s="2"/>
+      <c r="I323" s="2"/>
+    </row>
+    <row r="324" spans="2:9">
+      <c r="B324" s="25">
+        <v>45566</v>
+      </c>
+      <c r="C324" s="24">
+        <v>0</v>
+      </c>
+      <c r="D324" s="24">
+        <v>0</v>
+      </c>
+      <c r="E324" s="24">
+        <v>0</v>
+      </c>
+      <c r="F324" s="26">
+        <v>0</v>
+      </c>
+      <c r="G324" s="2"/>
+      <c r="H324" s="2"/>
+      <c r="I324" s="2"/>
+    </row>
+    <row r="325" spans="2:9">
+      <c r="B325" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C325" s="24">
+        <v>0</v>
+      </c>
+      <c r="D325" s="24">
+        <v>0</v>
+      </c>
+      <c r="E325" s="24">
+        <v>0</v>
+      </c>
+      <c r="F325" s="26">
+        <v>0</v>
+      </c>
+      <c r="G325" s="2"/>
+      <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
+    </row>
+    <row r="326" spans="2:9">
+      <c r="B326" s="25">
+        <v>45627</v>
+      </c>
+      <c r="C326" s="24">
+        <v>0</v>
+      </c>
+      <c r="D326" s="24">
+        <v>0</v>
+      </c>
+      <c r="E326" s="24">
+        <v>0</v>
+      </c>
+      <c r="F326" s="26">
+        <v>0</v>
+      </c>
+      <c r="G326" s="2"/>
+      <c r="H326" s="2"/>
+      <c r="I326" s="2"/>
+    </row>
+    <row r="327" spans="2:9">
+      <c r="B327" s="25">
+        <v>45658</v>
+      </c>
+      <c r="C327" s="24">
+        <v>0</v>
+      </c>
+      <c r="D327" s="24">
+        <v>0</v>
+      </c>
+      <c r="E327" s="24">
+        <v>0</v>
+      </c>
+      <c r="F327" s="26">
+        <v>0</v>
+      </c>
+      <c r="G327" s="2"/>
+      <c r="H327" s="2"/>
+      <c r="I327" s="2"/>
+    </row>
+    <row r="328" spans="2:9">
+      <c r="B328" s="25">
+        <v>45689</v>
+      </c>
+      <c r="C328" s="24">
+        <v>0</v>
+      </c>
+      <c r="D328" s="24">
+        <v>0</v>
+      </c>
+      <c r="E328" s="24">
+        <v>0</v>
+      </c>
+      <c r="F328" s="26">
+        <v>0</v>
+      </c>
+      <c r="G328" s="2"/>
+      <c r="H328" s="2"/>
+      <c r="I328" s="2"/>
+    </row>
+    <row r="329" spans="2:9">
+      <c r="B329" s="25">
+        <v>45717</v>
+      </c>
+      <c r="C329" s="24">
+        <v>0</v>
+      </c>
+      <c r="D329" s="24">
+        <v>0</v>
+      </c>
+      <c r="E329" s="24">
+        <v>0</v>
+      </c>
+      <c r="F329" s="26">
+        <v>0</v>
+      </c>
+      <c r="G329" s="2"/>
+      <c r="H329" s="2"/>
+      <c r="I329" s="2"/>
+    </row>
+    <row r="330" spans="2:9">
+      <c r="B330" s="25">
+        <v>45748</v>
+      </c>
+      <c r="C330" s="24">
+        <v>0</v>
+      </c>
+      <c r="D330" s="24">
+        <v>0</v>
+      </c>
+      <c r="E330" s="24">
+        <v>0</v>
+      </c>
+      <c r="F330" s="26">
+        <v>0</v>
+      </c>
+      <c r="G330" s="2"/>
+      <c r="H330" s="2"/>
+      <c r="I330" s="2"/>
+    </row>
+    <row r="331" spans="2:9">
+      <c r="B331" s="25">
+        <v>45778</v>
+      </c>
+      <c r="C331" s="24">
+        <v>0</v>
+      </c>
+      <c r="D331" s="24">
+        <v>0</v>
+      </c>
+      <c r="E331" s="24">
+        <v>0</v>
+      </c>
+      <c r="F331" s="26">
+        <v>0</v>
+      </c>
+      <c r="G331" s="2"/>
+      <c r="H331" s="2"/>
+      <c r="I331" s="2"/>
+    </row>
+    <row r="332" spans="2:9">
+      <c r="B332" s="25">
+        <v>45809</v>
+      </c>
+      <c r="C332" s="24">
+        <v>0</v>
+      </c>
+      <c r="D332" s="24">
+        <v>0</v>
+      </c>
+      <c r="E332" s="24">
+        <v>0</v>
+      </c>
+      <c r="F332" s="26">
+        <v>0</v>
+      </c>
+      <c r="G332" s="2"/>
+      <c r="H332" s="2"/>
+      <c r="I332" s="2"/>
+    </row>
+    <row r="333" spans="2:9">
+      <c r="B333" s="25">
+        <v>45839</v>
+      </c>
+      <c r="C333" s="24">
+        <v>0</v>
+      </c>
+      <c r="D333" s="24">
+        <v>0</v>
+      </c>
+      <c r="E333" s="24">
+        <v>0</v>
+      </c>
+      <c r="F333" s="26">
+        <v>0</v>
+      </c>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+    </row>
+    <row r="334" spans="2:9">
+      <c r="B334" s="25">
+        <v>45870</v>
+      </c>
+      <c r="C334" s="24">
+        <v>0</v>
+      </c>
+      <c r="D334" s="24">
+        <v>0</v>
+      </c>
+      <c r="E334" s="24">
+        <v>0</v>
+      </c>
+      <c r="F334" s="26">
+        <v>0</v>
+      </c>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+    </row>
+    <row r="335" spans="2:9">
+      <c r="B335" s="25">
+        <v>45901</v>
+      </c>
+      <c r="C335" s="24">
+        <v>0</v>
+      </c>
+      <c r="D335" s="24">
+        <v>1</v>
+      </c>
+      <c r="E335" s="24">
+        <v>1</v>
+      </c>
+      <c r="F335" s="26">
+        <v>0</v>
+      </c>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+    </row>
+    <row r="336" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B336" s="27">
+        <v>45931</v>
+      </c>
+      <c r="C336" s="28">
+        <v>0</v>
+      </c>
+      <c r="D336" s="28">
+        <v>0</v>
+      </c>
+      <c r="E336" s="28">
+        <v>0</v>
+      </c>
+      <c r="F336" s="29">
+        <v>0</v>
+      </c>
+      <c r="G336" s="2"/>
+      <c r="H336" s="2"/>
+      <c r="I336" s="2"/>
+    </row>
+    <row r="337" spans="2:9">
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2"/>
+      <c r="I337" s="2"/>
+    </row>
+    <row r="338" spans="2:9" ht="18">
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="23"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+    </row>
+    <row r="339" spans="2:9">
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
+    </row>
+    <row r="340" spans="2:9" ht="18.75" thickBot="1">
+      <c r="B340" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C340" s="33"/>
+      <c r="D340" s="33"/>
+      <c r="E340" s="23"/>
+      <c r="F340" s="23"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+    </row>
+    <row r="341" spans="2:9" ht="38.25">
+      <c r="B341" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C341" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D341" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E341" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F341" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+    </row>
+    <row r="342" spans="2:9">
+      <c r="B342" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C342" s="3">
+        <v>0</v>
+      </c>
+      <c r="D342" s="3">
+        <v>0</v>
+      </c>
+      <c r="E342" s="3">
+        <v>0</v>
+      </c>
+      <c r="F342" s="5">
+        <v>0</v>
+      </c>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+    </row>
+    <row r="343" spans="2:9">
+      <c r="B343" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C343" s="3">
+        <v>0</v>
+      </c>
+      <c r="D343" s="3">
+        <v>0</v>
+      </c>
+      <c r="E343" s="3">
+        <v>0</v>
+      </c>
+      <c r="F343" s="5">
+        <v>0</v>
+      </c>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+    </row>
+    <row r="344" spans="2:9">
+      <c r="B344" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C344" s="3">
+        <v>0</v>
+      </c>
+      <c r="D344" s="3">
+        <v>0</v>
+      </c>
+      <c r="E344" s="3">
+        <v>0</v>
+      </c>
+      <c r="F344" s="5">
+        <v>0</v>
+      </c>
+      <c r="G344" s="2"/>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
+    </row>
+    <row r="345" spans="2:9">
+      <c r="B345" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C345" s="3">
+        <v>0</v>
+      </c>
+      <c r="D345" s="3">
+        <v>0</v>
+      </c>
+      <c r="E345" s="3">
+        <v>0</v>
+      </c>
+      <c r="F345" s="5">
+        <v>0</v>
+      </c>
+      <c r="G345" s="2"/>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+    </row>
+    <row r="346" spans="2:9">
+      <c r="B346" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C318" s="3">
-        <v>0</v>
-      </c>
-      <c r="D318" s="3">
-        <v>0</v>
-      </c>
-      <c r="E318" s="3">
-        <v>0</v>
-      </c>
-      <c r="F318" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="2:9">
-      <c r="B319" s="4" t="s">
+      <c r="C346" s="3">
+        <v>0</v>
+      </c>
+      <c r="D346" s="3">
+        <v>0</v>
+      </c>
+      <c r="E346" s="3">
+        <v>0</v>
+      </c>
+      <c r="F346" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:9">
+      <c r="B347" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C319" s="3">
-        <v>0</v>
-      </c>
-      <c r="D319" s="3">
-        <v>0</v>
-      </c>
-      <c r="E319" s="3">
-        <v>0</v>
-      </c>
-      <c r="F319" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="2:9">
-      <c r="B320" s="4" t="s">
+      <c r="C347" s="3">
+        <v>0</v>
+      </c>
+      <c r="D347" s="3">
+        <v>0</v>
+      </c>
+      <c r="E347" s="3">
+        <v>0</v>
+      </c>
+      <c r="F347" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9">
+      <c r="B348" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C320" s="3">
-        <v>0</v>
-      </c>
-      <c r="D320" s="3">
-        <v>0</v>
-      </c>
-      <c r="E320" s="3">
-        <v>0</v>
-      </c>
-      <c r="F320" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="2:6">
-      <c r="B321" s="4" t="s">
+      <c r="C348" s="3">
+        <v>0</v>
+      </c>
+      <c r="D348" s="3">
+        <v>0</v>
+      </c>
+      <c r="E348" s="3">
+        <v>0</v>
+      </c>
+      <c r="F348" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:9">
+      <c r="B349" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C321" s="3">
-        <v>0</v>
-      </c>
-      <c r="D321" s="3">
-        <v>0</v>
-      </c>
-      <c r="E321" s="3">
-        <v>0</v>
-      </c>
-      <c r="F321" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B322" s="6" t="s">
+      <c r="C349" s="3">
+        <v>0</v>
+      </c>
+      <c r="D349" s="3">
+        <v>0</v>
+      </c>
+      <c r="E349" s="3">
+        <v>0</v>
+      </c>
+      <c r="F349" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B350" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C322" s="7">
-        <v>0</v>
-      </c>
-      <c r="D322" s="7">
-        <v>0</v>
-      </c>
-      <c r="E322" s="7">
-        <v>0</v>
-      </c>
-      <c r="F322" s="8">
+      <c r="C350" s="7">
+        <v>0</v>
+      </c>
+      <c r="D350" s="7">
+        <v>1</v>
+      </c>
+      <c r="E350" s="7">
+        <v>1</v>
+      </c>
+      <c r="F350" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="dHJKxEphR6qMqyX0ef2cDDSdQQN/h89JGzfOatxme0hm1lMpAriZNsqKUn/JKLW1N+Pg5F9N9ff+Zv3PJ7njoA==" saltValue="UHMQ7VAmxiI3jdHnaeEdpg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B312:D312"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B340:D340"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
